--- a/xlsx/巴兹·奥尔德林_intext.xlsx
+++ b/xlsx/巴兹·奥尔德林_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>巴兹·奥尔德林</t>
   </si>
@@ -26,18 +26,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_巴兹·奥尔德林</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_巴兹·奥尔德林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -47,7 +44,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%8B%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特克萊爾</t>
+    <t>蒙特克莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%A0%A1</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>尼爾·阿姆斯壯</t>
+    <t>尼尔·阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%97%E5%AE%87%E8%88%AA%E5%91%98%E5%88%97%E8%A1%A8</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%88%A9%E6%96%AF%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/F-100_%E8%B6%85%E7%B4%9A%E8%BB%8D%E5%88%80</t>
   </si>
   <si>
-    <t>F-100 超級軍刀</t>
+    <t>F-100 超级军刀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>自然科學博士</t>
+    <t>自然科学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%B7%A5%E7%A8%8B</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%85%B7%E7%B8%BD%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>玩具總動員</t>
+    <t>玩具总动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%89%E5%B9%B4</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E6%9C%88%E9%99%B0%E8%AC%80%E8%AB%96</t>
   </si>
   <si>
-    <t>登月陰謀論</t>
+    <t>登月阴谋论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bart_Sibrel</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%B1%B3%E8%8C%84%E9%8C%B6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>歐米茄錶公司</t>
+    <t>欧米茄表公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%94%BF%E5%B1%80</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%AA%E7%A9%BA%E9%A4%A8</t>
   </si>
   <si>
-    <t>香港太空館</t>
+    <t>香港太空馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AA%B2%E5%BE%8C</t>
   </si>
   <si>
-    <t>下課後</t>
+    <t>下课后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%85%84%E5%BC%9F</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%BD%A2%E9%87%91%E5%89%9B3</t>
   </si>
   <si>
-    <t>變形金剛3</t>
+    <t>变形金刚3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%A4%A7%E7%88%86%E7%82%B8</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1052,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>17</v>
@@ -1078,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -1107,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1136,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1165,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -1194,10 +1191,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -1223,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1252,10 +1249,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -1281,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -1310,10 +1307,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>5</v>
@@ -1339,10 +1336,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -1368,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1397,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1426,10 +1423,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1455,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1484,10 +1481,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1513,10 +1510,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1542,10 +1539,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1571,10 +1568,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1600,10 +1597,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1629,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1658,10 +1655,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1687,10 +1684,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1716,10 +1713,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1745,10 +1742,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1774,10 +1771,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1803,10 +1800,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1832,10 +1829,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1861,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1890,10 +1887,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1919,10 +1916,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1948,10 +1945,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1977,10 +1974,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2006,10 +2003,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2035,10 +2032,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -2064,10 +2061,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2093,10 +2090,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2122,10 +2119,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2151,10 +2148,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2180,10 +2177,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2209,10 +2206,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2238,10 +2235,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2267,10 +2264,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2296,10 +2293,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2325,10 +2322,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2354,10 +2351,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2383,10 +2380,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2412,10 +2409,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2441,10 +2438,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2470,10 +2467,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
         <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
@@ -2499,10 +2496,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2528,10 +2525,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2557,10 +2554,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2586,10 +2583,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2615,10 +2612,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2644,10 +2641,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2673,10 +2670,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2702,10 +2699,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2731,10 +2728,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2760,10 +2757,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2789,10 +2786,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2818,10 +2815,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2847,10 +2844,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2876,10 +2873,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2905,10 +2902,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2934,10 +2931,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2963,10 +2960,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
         <v>23</v>
-      </c>
-      <c r="F69" t="s">
-        <v>24</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2992,10 +2989,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3021,10 +3018,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3050,10 +3047,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3079,10 +3076,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>8</v>
@@ -3108,10 +3105,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3137,10 +3134,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3166,10 +3163,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3195,10 +3192,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3224,10 +3221,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3253,10 +3250,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3282,10 +3279,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3311,10 +3308,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3340,10 +3337,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3369,10 +3366,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3398,10 +3395,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3427,10 +3424,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3456,10 +3453,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3485,10 +3482,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" t="s">
         <v>69</v>
-      </c>
-      <c r="F87" t="s">
-        <v>70</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3514,10 +3511,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3543,10 +3540,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3572,10 +3569,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3601,10 +3598,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3630,10 +3627,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3659,10 +3656,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3688,10 +3685,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3717,10 +3714,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3746,10 +3743,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -3775,10 +3772,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3804,10 +3801,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3833,10 +3830,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3862,10 +3859,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3891,10 +3888,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3920,10 +3917,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3949,10 +3946,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3978,10 +3975,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
